--- a/public/file/template-excel-attendance/AttendanceReport.xlsx
+++ b/public/file/template-excel-attendance/AttendanceReport.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\swidodo\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E5BB6F2-CFC1-40E0-AB06-739B31F734D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Attendance" sheetId="1" r:id="rId4"/>
+    <sheet name="Attendance" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
   <si>
     <t>No.</t>
   </si>
@@ -25,52 +34,78 @@
     <t>Date</t>
   </si>
   <si>
-    <t>Shift In</t>
-  </si>
-  <si>
-    <t>Shift Out</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
-    <t>1.</t>
-  </si>
-  <si>
-    <t>Amanda Bella</t>
-  </si>
-  <si>
-    <t>13 Nov 2022</t>
-  </si>
-  <si>
     <t>00:00</t>
   </si>
   <si>
-    <t>PRS</t>
+    <t>Late</t>
+  </si>
+  <si>
+    <t>Early Leaving</t>
+  </si>
+  <si>
+    <t>Overtime</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>08:00</t>
+  </si>
+  <si>
+    <t>Clock In</t>
+  </si>
+  <si>
+    <t>Clock Out</t>
+  </si>
+  <si>
+    <t>08:15</t>
+  </si>
+  <si>
+    <t>22:02</t>
+  </si>
+  <si>
+    <t>17:10</t>
+  </si>
+  <si>
+    <t>Present</t>
+  </si>
+  <si>
+    <t>0521002</t>
+  </si>
+  <si>
+    <t>SLAMET WIDODO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color indexed="8"/>
-      <name val="Helvetica Neue"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="15"/>
-      <color indexed="8"/>
+      <sz val="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -87,7 +122,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -107,21 +142,6 @@
       </top>
       <bottom style="thin">
         <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -155,34 +175,99 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+  <cellXfs count="15">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -191,41 +276,110 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ff3c899e"/>
-      <rgbColor rgb="ff1faa17"/>
-      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FF3C899E"/>
+      <rgbColor rgb="FF1FAA17"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
+    <mruColors>
+      <color rgb="FFFF7E79"/>
+    </mruColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>113492</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2066304</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>181286</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="*Note…"/>
+        <xdr:cNvPr id="2" name="*Note…">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -244,7 +398,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
           </a:ext>
         </a:extLst>
       </xdr:spPr>
@@ -269,7 +423,7 @@
             <a:buFontTx/>
             <a:buNone/>
             <a:tabLst/>
-            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -281,7 +435,7 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:rPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -293,16 +447,6 @@
             </a:rPr>
             <a:t>*Note</a:t>
           </a:r>
-          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="110289" marR="0" indent="-110289" algn="l" defTabSz="914400" rtl="0" latinLnBrk="0">
@@ -320,7 +464,7 @@
             <a:buFontTx/>
             <a:buChar char="-"/>
             <a:tabLst/>
-            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -332,7 +476,7 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:rPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -344,16 +488,6 @@
             </a:rPr>
             <a:t>Semua field header harus sama persis </a:t>
           </a:r>
-          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="110289" marR="0" indent="-110289" algn="l" defTabSz="914400" rtl="0" latinLnBrk="0">
@@ -371,7 +505,7 @@
             <a:buFontTx/>
             <a:buChar char="-"/>
             <a:tabLst/>
-            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -383,7 +517,7 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:rPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -404,7 +538,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
@@ -530,7 +664,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -539,7 +673,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -548,7 +682,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -622,7 +756,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -630,7 +764,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -649,7 +783,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -679,7 +813,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -705,7 +839,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -731,7 +865,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -757,7 +891,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -783,7 +917,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -809,7 +943,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -835,7 +969,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -861,7 +995,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -887,7 +1021,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -900,9 +1034,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -917,7 +1057,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="20000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="38000"/>
             </a:srgbClr>
@@ -925,7 +1065,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -944,7 +1084,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -970,7 +1110,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -996,7 +1136,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1022,7 +1162,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1048,7 +1188,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1074,7 +1214,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1100,7 +1240,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1126,7 +1266,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1152,7 +1292,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1178,7 +1318,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1191,9 +1331,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1207,7 +1353,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1226,7 +1372,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1256,7 +1402,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1282,7 +1428,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1308,7 +1454,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1334,7 +1480,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1360,7 +1506,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1386,7 +1532,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1412,7 +1558,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1438,7 +1584,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1464,7 +1610,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1477,81 +1623,142 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="40" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="7" customWidth="1"/>
     <col min="3" max="3" width="35" style="1" customWidth="1"/>
     <col min="4" max="4" width="20" style="1" customWidth="1"/>
-    <col min="5" max="7" width="15" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.85156" style="1" customWidth="1"/>
+    <col min="5" max="10" width="15" style="1" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="30" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="2">
+    </row>
+    <row r="2" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="14">
+        <v>45187</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="2">
-        <v>6</v>
+      <c r="H2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="2" ht="13.55" customHeight="1">
-      <c r="A2" t="s" s="3">
-        <v>7</v>
-      </c>
-      <c r="B2" s="4">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="5">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s" s="5">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s" s="5">
+    <row r="3" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s" s="5">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s" s="6">
+      <c r="B3" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="14">
+        <v>45188</v>
+      </c>
+      <c r="E3" s="13" t="s">
         <v>11</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/public/file/template-excel-attendance/AttendanceReport.xlsx
+++ b/public/file/template-excel-attendance/AttendanceReport.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\swidodo\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\payroll\public\file\template-excel-attendance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E5BB6F2-CFC1-40E0-AB06-739B31F734D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E607378A-CE72-4CD4-A02D-0FB87AB0E7AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
   <si>
     <t>No.</t>
   </si>
@@ -80,6 +80,12 @@
   </si>
   <si>
     <t>SLAMET WIDODO</t>
+  </si>
+  <si>
+    <t>Branch Code</t>
+  </si>
+  <si>
+    <t>EXP</t>
   </si>
 </sst>
 </file>
@@ -398,7 +404,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
+            <ma14:wrappingTextBoxFlag xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
           </a:ext>
         </a:extLst>
       </xdr:spPr>
@@ -1642,10 +1648,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1654,12 +1660,11 @@
     <col min="2" max="2" width="10.7109375" style="7" customWidth="1"/>
     <col min="3" max="3" width="35" style="1" customWidth="1"/>
     <col min="4" max="4" width="20" style="1" customWidth="1"/>
-    <col min="5" max="10" width="15" style="1" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" style="1" customWidth="1"/>
+    <col min="5" max="11" width="15" style="1" customWidth="1"/>
     <col min="12" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1690,8 +1695,11 @@
       <c r="J1" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="K1" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>9</v>
       </c>
@@ -1722,8 +1730,11 @@
       <c r="J2" s="8" t="s">
         <v>17</v>
       </c>
+      <c r="K2" s="8" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>10</v>
       </c>
@@ -1753,6 +1764,9 @@
       </c>
       <c r="J3" s="8" t="s">
         <v>17</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
